--- a/POSv0/public/template_supplier.xlsx
+++ b/POSv0/public/template_supplier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>supplier_kode</t>
   </si>
@@ -22,7 +22,7 @@
     <t>supplier_nama</t>
   </si>
   <si>
-    <t>supplier_telp</t>
+    <t>supplier_wa</t>
   </si>
   <si>
     <t>supplier_alamat</t>
@@ -40,10 +40,10 @@
     <t>SP002</t>
   </si>
   <si>
-    <t>abdur</t>
-  </si>
-  <si>
-    <t>jl. kecil</t>
+    <t>random - pasar kasin</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -75,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,23 +104,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,10 +449,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="48.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="21.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -437,7 +462,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -445,30 +470,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
-        <v>8123123</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>6287866711494</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
-        <v>812313</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
